--- a/xlsx/CaVaTeCo/form_q_redo_parcela_limites.xlsx
+++ b/xlsx/CaVaTeCo/form_q_redo_parcela_limites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_blue_future\xlsx\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_wcs_nampula\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF667D-344C-4EBE-BEC2-39A03CB659BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6F81DB-DA24-4CE2-B2D8-D5BC2E005608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>type</t>
   </si>
@@ -138,9 +138,6 @@
     <t>upn_gps_limit</t>
   </si>
   <si>
-    <t>Qual é o numero do recibo?</t>
-  </si>
-  <si>
     <t>Pontos</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Por favor, re-digite o número do recibo como confirmação:</t>
   </si>
   <si>
-    <t>O número do recibo que reentrou não corresponde à sua primeira entrada. Faça a favor de verificar de novo.</t>
-  </si>
-  <si>
     <t>regex(.,'[0-9]{6}')</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
   </si>
   <si>
     <t>Form Q - Redo Parcela Limites</t>
-  </si>
-  <si>
-    <t>form_q_redo_limites</t>
   </si>
   <si>
     <t>external_id</t>
@@ -243,9 +234,6 @@
     <t>searchtext</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>select_one enum_name_id</t>
   </si>
   <si>
@@ -264,28 +252,44 @@
     <t>. &lt;= today()</t>
   </si>
   <si>
-    <t>"WCS - Futura Azul"</t>
-  </si>
-  <si>
     <t>search('enum_names_wcs_nampula', 'startswith', 'enumerator_name', ${searchtext})</t>
   </si>
   <si>
     <t>pulldata('enum_names_wcs_nampula', 'enumerator_name', 'name_id_key', ${enum_name_id})</t>
   </si>
   <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/wcs_nampula/submission</t>
-  </si>
-  <si>
     <t>terrafirma_wcs.jpg</t>
+  </si>
+  <si>
+    <t>redo_limites</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
+  </si>
+  <si>
+    <t>Qual é o número do recibo?</t>
+  </si>
+  <si>
+    <t>O número do recibo que digitou não corresponde à sua primeira entrada. Faça o favor de verificar de novo.</t>
+  </si>
+  <si>
+    <t>"WCS - Futuro Azul"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -505,244 +509,254 @@
   </borders>
   <cellStyleXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -753,108 +767,101 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -862,50 +869,35 @@
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="260">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1507,34 +1499,34 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.19921875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="78.59765625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="27" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="46.59765625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="38.8984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.09765625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="47.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.09765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.19921875" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="21"/>
+    <col min="1" max="1" width="29.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="78.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="27" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="46.625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="38.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="47.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1584,242 +1576,242 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="49" t="s">
+      <c r="B7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="L7" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+    <row r="8" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" s="33" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="F13" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="J13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="L7" s="41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="43" t="s">
+      <c r="B14" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="C16" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16"/>
+      <c r="H16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="43"/>
-    </row>
-    <row r="11" spans="1:16" s="41" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="44" t="s">
+      <c r="C17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="57" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="F13" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="J13" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="35" t="s">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>32</v>
       </c>
@@ -1829,36 +1821,35 @@
       <c r="C19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="F19" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="28"/>
-      <c r="P19" s="21">
+      <c r="F19" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="P19" s="19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="M20" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1879,16 +1870,16 @@
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.8984375" style="3"/>
+    <col min="4" max="4" width="41.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1900,191 +1891,191 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="41"/>
-    </row>
-    <row r="4" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
     </row>
   </sheetData>
@@ -2102,64 +2093,59 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.8984375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="58.8984375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="33" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="27"/>
+    <col min="1" max="1" width="36.875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="58.875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="33" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="64">
-        <v>2022012801</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="38" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="B2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="54">
+        <v>2023316</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="C5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://cavateco.terrafirma.co.mz:8080/sandbox/submission" xr:uid="{2E6B5249-1587-4112-9AB3-C41183A9A8EB}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
